--- a/input/indicators/Additional_Indicators_CCCM.xlsx
+++ b/input/indicators/Additional_Indicators_CCCM.xlsx
@@ -351,6 +351,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -362,15 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,27 +654,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="26.88671875" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,14 +684,14 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
@@ -705,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -715,14 +715,14 @@
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -746,14 +746,14 @@
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
@@ -767,24 +767,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="7"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,14 +794,14 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
@@ -815,19 +815,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="7" t="s">
         <v>33</v>
       </c>
@@ -841,7 +841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -849,14 +849,14 @@
       <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="7" t="s">
         <v>37</v>
       </c>
@@ -870,30 +870,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="7"/>
       <c r="I10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D10:E10"/>
@@ -904,6 +898,12 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -914,7 +914,7 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
